--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E182DB8-1B77-4E54-B63F-EE460C45D7D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C1543-5813-44AF-A89C-792B6C4C8C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -85,12 +85,45 @@
   </si>
   <si>
     <t>P=</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Pure Expected</t>
+  </si>
+  <si>
+    <t>Calculated formula Expected</t>
+  </si>
+  <si>
+    <t>Real Expected</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,21 +202,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z21"/>
+  <dimension ref="B1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -483,10 +589,13 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>1</v>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -494,43 +603,37 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="12">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>2</v>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="AB2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.36527777777777781</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
@@ -560,32 +663,32 @@
       <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <f>P4</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>P6</f>
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <f>P7</f>
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>3</v>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -593,6 +696,9 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="12">
+        <v>0.27291666666666664</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -624,33 +730,36 @@
         <f>SUM(H4:O4)</f>
         <v>0</v>
       </c>
-      <c r="R4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4">
-        <f>P9/5</f>
-        <v>0.8</v>
-      </c>
-      <c r="T4">
-        <f>S4</f>
-        <v>0.8</v>
-      </c>
-      <c r="U4">
-        <f>T4</f>
-        <v>0.8</v>
-      </c>
-      <c r="V4">
-        <f>U4</f>
-        <v>0.8</v>
-      </c>
-      <c r="W4">
-        <f>V4</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4</v>
+      <c r="R4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <f>P5</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <f>P6</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="4">
+        <f>P7</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <f>P8</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -658,11 +767,14 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="12">
+        <v>0.25347222222222221</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -687,12 +799,47 @@
       </c>
       <c r="P5" s="3">
         <f>SUM(H5:O5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="8">
+        <f>P14</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="T5" s="8">
+        <f>P15</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="U5" s="8">
+        <f>P16</f>
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="8">
+        <f>P17</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="W5" s="9">
+        <f>P18</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.28333333333333333</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
@@ -716,24 +863,32 @@
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="3">
         <f>SUM(H6:O6)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="6">
-        <f>_xlfn.CHISQ.TEST(S3:W3,S4:W4)</f>
-        <v>0.47787834448872379</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.27638888888888885</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
@@ -765,8 +920,27 @@
         <f>SUM(H7:O7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="5">
+        <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
+        <v>0.54555043493310529</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
@@ -799,13 +973,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(H4:H8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:O9" si="0">SUM(I4:I8)</f>
@@ -829,7 +1012,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
@@ -837,236 +1020,164 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Z13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="G13" s="3" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4">
-        <f>$P4*H$9/$P$9</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" ref="I13:O13" si="1">$P4*I$9/$P$9</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:L14" si="1">H26*$P$9/$P$31</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <f>SUM(H13:O13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <f>H18</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ref="T13:Z13" si="2">I18</f>
-        <v>0</v>
-      </c>
-      <c r="U13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M14" s="4">
+        <f>M26*$P$9/$P$31</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" ref="H14:O14" si="3">$P5*H$9/$P$9</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14">
-        <f>P9/8</f>
-        <v>0.5</v>
-      </c>
-      <c r="T14">
-        <f>S14</f>
-        <v>0.5</v>
-      </c>
-      <c r="U14">
-        <f>T14</f>
-        <v>0.5</v>
-      </c>
-      <c r="V14">
-        <f>U14</f>
-        <v>0.5</v>
-      </c>
-      <c r="W14">
-        <f>V14</f>
-        <v>0.5</v>
-      </c>
-      <c r="X14">
-        <f>W14</f>
-        <v>0.5</v>
-      </c>
-      <c r="Y14">
-        <f>X14</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z14">
-        <f>Y14</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" ref="S14:Z14" si="3">H9</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" ref="H15:O15" si="4">$P6*H$9/$P$9</f>
-        <v>0</v>
+        <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1074,178 +1185,1069 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="8">
+        <f>H19</f>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15:Z15" si="6">I19</f>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" ref="H16:O16" si="5">$P7*H$9/$P$9</f>
-        <v>0</v>
+        <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N16" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="O16" s="4">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="6">
-        <f>_xlfn.CHISQ.TEST(S13:Z13,S14:Z14)</f>
-        <v>0.33259390259930788</v>
-      </c>
-    </row>
-    <row r="17" spans="7:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:O17" si="6">$P8*H$9/$P$9</f>
+        <f t="shared" ref="H17:L17" si="9">H29*$P$9/$P$31</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G18" s="2" t="s">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="5">
+        <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
+        <v>0.77977740847571597</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ref="H18:L18" si="11">H30*$P$9/$P$31</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P18" s="3">
+        <f>SUM(H18:O18)</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="1">
-        <f>SUM(H13:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ref="I18" si="7">SUM(I13:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" ref="J18" si="8">SUM(J13:J17)</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" ref="K18" si="9">SUM(K13:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" ref="L18" si="10">SUM(L13:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" ref="M18" si="11">SUM(M13:M17)</f>
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" ref="N18" si="12">SUM(N13:N17)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" ref="O18" si="13">SUM(O13:O17)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <f>SUM(P13:P17)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <f>SUM(H14:H18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M19" s="1">
+        <f>SUM(M14:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P19" s="2">
+        <f>SUM(P14:P18)</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="e">
-        <f>_xlfn.CHISQ.TEST(H4:O8,H13:O17)</f>
+        <f>_xlfn.CHISQ.TEST(H4:O8,H14:O18)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="24" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2</v>
+      </c>
+      <c r="P26" s="3">
+        <f>SUM(H26:O26)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <f>SUM(H27:O27)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4">
+        <v>3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f>SUM(H28:O28)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="3">
+        <f>SUM(H29:O29)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <f>SUM(H30:O30)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1">
+        <f>SUM(H26:H30)</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31:O31" si="14">SUM(I26:I30)</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="P31" s="2">
+        <f>SUM(P26:P30)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="R40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+    </row>
+    <row r="41" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="2"/>
+      <c r="H41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" ref="H42:O46" si="15">$P4*H$9/$P$9</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f>SUM(H42:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="4">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f>P5</f>
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <f>P6</f>
+        <v>2</v>
+      </c>
+      <c r="V42" s="4">
+        <f>P7</f>
+        <v>1</v>
+      </c>
+      <c r="W42" s="7">
+        <f>P8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N43" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P43" s="3">
+        <f>SUM(H43:O43)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S43" s="8">
+        <f>P9/5</f>
+        <v>1.2</v>
+      </c>
+      <c r="T43" s="8">
+        <f>S43</f>
+        <v>1.2</v>
+      </c>
+      <c r="U43" s="8">
+        <f>T43</f>
+        <v>1.2</v>
+      </c>
+      <c r="V43" s="8">
+        <f>U43</f>
+        <v>1.2</v>
+      </c>
+      <c r="W43" s="9">
+        <f>V43</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O44" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P44" s="3">
+        <f>SUM(H44:O44)</f>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="7:27" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O45" s="4">
+        <f t="shared" si="15"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P45" s="3">
+        <f>SUM(H45:O45)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R45" t="s">
+        <v>19</v>
+      </c>
+      <c r="S45" s="5">
+        <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
+        <v>0.67470698514829497</v>
+      </c>
+    </row>
+    <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="15"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="15"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P46" s="3">
+        <f>SUM(H46:O46)</f>
+        <v>1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1">
+        <f>SUM(H42:H46)</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ref="I47" si="16">SUM(I42:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" ref="J47" si="17">SUM(J42:J46)</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" ref="K47" si="18">SUM(K42:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" ref="L47" si="19">SUM(L42:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" ref="M47" si="20">SUM(M42:M46)</f>
+        <v>2</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47" si="21">SUM(N42:N46)</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" ref="O47" si="22">SUM(O42:O46)</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <f>SUM(P42:P46)</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="e">
+        <f>_xlfn.CHISQ.TEST(H4:O8,H42:O46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R51" s="2"/>
+      <c r="S51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="R52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" ref="S52:Z52" si="23">H47</f>
+        <v>1</v>
+      </c>
+      <c r="T52" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V52" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="4">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="Y52" s="4">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Z52" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" s="8">
+        <f>P9/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="T53" s="8">
+        <f t="shared" ref="T53:Z53" si="24">S53</f>
+        <v>0.75</v>
+      </c>
+      <c r="U53" s="8">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="V53" s="8">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="W53" s="8">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="X53" s="8">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="Y53" s="8">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z53" s="9">
+        <f t="shared" si="24"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="7:26" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>19</v>
+      </c>
+      <c r="S55" s="5">
+        <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
+        <v>0.70056592154476571</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="R40:AA40"/>
     <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G12:P12"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:O8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:O46">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S42:W43">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:Z53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:O30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:O18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:W5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1257,7 +2259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:O17">
+  <conditionalFormatting sqref="S14:Z15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1269,14 +2271,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C32" xr:uid="{F45D7240-BCB8-414F-AE3F-88CDEB74F2FF}">
-      <formula1>$H$3:$O$3</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{20F713B3-2578-48ED-AA40-4024F6F4D1CE}">
+      <formula1>$AB$2:$AB$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24" xr:uid="{66F015AF-F4A8-4BF7-BE7E-4990DEAD0C1C}">
-      <formula1>$G$4:$G$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49" xr:uid="{440D6AD8-54F4-410B-8801-081B5ACB0597}">
+      <formula1>$S$3:$X$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C57" xr:uid="{6C3F1DA4-F5F2-4318-9D5E-1C49DE1A195E}">
+      <formula1>$S$13:$AA$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C1543-5813-44AF-A89C-792B6C4C8C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2105D-41FF-4531-9041-E82D36D0739D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
   <si>
     <t>Day</t>
   </si>
@@ -115,14 +115,48 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>25/04/2019</t>
+  </si>
+  <si>
+    <t>26/04/2019</t>
+  </si>
+  <si>
+    <t>31/03/2019</t>
+  </si>
+  <si>
+    <t>30/03/2019</t>
+  </si>
+  <si>
+    <t>29/03/2019</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -287,6 +321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB55"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +615,10 @@
     <col min="1" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +632,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -622,7 +664,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -686,7 +731,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -739,7 +787,7 @@
       </c>
       <c r="T4" s="4">
         <f>P5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="4">
         <f>P6</f>
@@ -757,7 +805,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -774,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -799,36 +850,39 @@
       </c>
       <c r="P5" s="3">
         <f>SUM(H5:O5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S5" s="8">
         <f>P14</f>
-        <v>1.1666666666666665</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="T5" s="8">
         <f>P15</f>
-        <v>1.3333333333333333</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="U5" s="8">
         <f>P16</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V5" s="8">
         <f>P17</f>
-        <v>1.1666666666666665</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="W5" s="9">
         <f>P18</f>
-        <v>0.83333333333333326</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -876,7 +930,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -925,13 +982,16 @@
       </c>
       <c r="S7" s="5">
         <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
-        <v>0.54555043493310529</v>
+        <v>0.60814368840409883</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -973,7 +1033,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -988,7 +1051,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(H4:H8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:O9" si="0">SUM(I4:I8)</f>
@@ -1020,10 +1083,38 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1128,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
@@ -1095,7 +1186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1105,23 +1196,23 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M14" s="4">
         <f>M26*$P$9/$P$31</f>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
@@ -1129,18 +1220,18 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>1.1666666666666665</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" ref="S14:Z14" si="3">H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="4">
         <f t="shared" si="3"/>
@@ -1171,13 +1262,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1189,71 +1280,71 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>1.3333333333333333</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S15" s="8">
         <f>H19</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:Z15" si="6">I19</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>0.83333333333333326</v>
+        <v>0.97222222222222232</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1261,11 +1352,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
@@ -1273,11 +1364,11 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="8"/>
@@ -1285,7 +1376,7 @@
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" spans="7:19" x14ac:dyDescent="0.3">
@@ -1298,7 +1389,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="9"/>
@@ -1310,11 +1401,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1322,18 +1413,18 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>1.1666666666666665</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5">
         <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
-        <v>0.77977740847571597</v>
+        <v>0.45922209694110283</v>
       </c>
     </row>
     <row r="18" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1350,7 +1441,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -1358,7 +1449,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
@@ -1366,15 +1457,15 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(H18:O18)</f>
-        <v>0.83333333333333326</v>
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="19" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1383,39 +1474,39 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(H14:H18)</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="13"/>
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="13"/>
-        <v>0.83333333333333326</v>
+        <v>0.97222222222222232</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="M19" s="1">
         <f>SUM(M14:M18)</f>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>0.99999999999999989</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="P19" s="2">
         <f>SUM(P14:P18)</f>
-        <v>5.9999999999999991</v>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="21" spans="7:19" x14ac:dyDescent="0.3">
@@ -1798,7 +1889,7 @@
       </c>
       <c r="T42" s="4">
         <f>P5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" s="4">
         <f>P6</f>
@@ -1819,7 +1910,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="15"/>
@@ -1827,7 +1918,7 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="15"/>
@@ -1839,42 +1930,42 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P43" s="3">
         <f>SUM(H43:O43)</f>
-        <v>0.99999999999999989</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S43" s="8">
         <f>P9/5</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="T43" s="8">
         <f>S43</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U43" s="8">
         <f>T43</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V43" s="8">
         <f>U43</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W43" s="9">
         <f>V43</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.3">
@@ -1883,7 +1974,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
@@ -1891,7 +1982,7 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
@@ -1903,19 +1994,19 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(H44:O44)</f>
-        <v>1.9999999999999998</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.3">
@@ -1924,7 +2015,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="15"/>
@@ -1932,7 +2023,7 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="15"/>
@@ -1944,26 +2035,26 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="15"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P45" s="3">
         <f>SUM(H45:O45)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="R45" t="s">
         <v>19</v>
       </c>
       <c r="S45" s="5">
         <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
-        <v>0.67470698514829497</v>
+        <v>0.68337119426565074</v>
       </c>
     </row>
     <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1972,7 +2063,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="15"/>
@@ -1980,7 +2071,7 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="15"/>
@@ -1992,19 +2083,19 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P46" s="3">
         <f>SUM(H46:O46)</f>
-        <v>1.9999999999999998</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="47" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,7 +2104,7 @@
       </c>
       <c r="H47" s="1">
         <f>SUM(H42:H46)</f>
-        <v>1</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ref="I47" si="16">SUM(I42:I46)</f>
@@ -2021,7 +2112,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ref="J47" si="17">SUM(J42:J46)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" ref="K47" si="18">SUM(K42:K46)</f>
@@ -2033,19 +2124,19 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ref="M47" si="20">SUM(M42:M46)</f>
-        <v>2</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ref="N47" si="21">SUM(N42:N46)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ref="O47" si="22">SUM(O42:O46)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="P47" s="2">
         <f>SUM(P42:P46)</f>
-        <v>5.9999999999999991</v>
+        <v>6.9999999999999982</v>
       </c>
     </row>
     <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2090,7 +2181,7 @@
       </c>
       <c r="S52" s="4">
         <f t="shared" ref="S52:Z52" si="23">H47</f>
-        <v>1</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="T52" s="4">
         <f t="shared" si="23"/>
@@ -2098,7 +2189,7 @@
       </c>
       <c r="U52" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="V52" s="4">
         <f t="shared" si="23"/>
@@ -2110,15 +2201,15 @@
       </c>
       <c r="X52" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Z52" s="7">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="53" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2127,35 +2218,35 @@
       </c>
       <c r="S53" s="8">
         <f>P9/8</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ref="T53:Z53" si="24">S53</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="W53" s="8">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Y53" s="8">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="24"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -2164,7 +2255,7 @@
       </c>
       <c r="S55" s="5">
         <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
-        <v>0.70056592154476571</v>
+        <v>0.59058279955303417</v>
       </c>
     </row>
   </sheetData>
@@ -2283,6 +2374,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5:A9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2105D-41FF-4531-9041-E82D36D0739D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C6784-B20A-46AF-A165-CC16413837F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -135,28 +135,42 @@
     <t>29/03/2019</t>
   </si>
   <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+5</t>
+    <t>29/04/2019</t>
+  </si>
+  <si>
+    <t>30/04/2019</t>
+  </si>
+  <si>
+    <t>01/05/2019</t>
+  </si>
+  <si>
+    <t>01/04/2019</t>
+  </si>
+  <si>
+    <t>02/04/2019</t>
+  </si>
+  <si>
+    <t>03/04/2019</t>
+  </si>
+  <si>
+    <t>04/04/2019</t>
+  </si>
+  <si>
+    <t>05/04/2019</t>
+  </si>
+  <si>
+    <t>02/05/2019</t>
+  </si>
+  <si>
+    <t>03/05/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -295,12 +309,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -321,8 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +667,7 @@
   <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +768,9 @@
       <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>12</v>
       </c>
@@ -778,8 +840,8 @@
         <f>SUM(H4:O4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>2</v>
+      <c r="R4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S4" s="4">
         <f>P4</f>
@@ -799,7 +861,7 @@
       </c>
       <c r="W4" s="7">
         <f>P8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
         <v>22</v>
@@ -807,7 +869,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -857,23 +919,23 @@
       </c>
       <c r="S5" s="8">
         <f>P14</f>
-        <v>1.3611111111111112</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="T5" s="8">
         <f>P15</f>
-        <v>1.5555555555555556</v>
+        <v>1.7777777777777781</v>
       </c>
       <c r="U5" s="8">
         <f>P16</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V5" s="8">
         <f>P17</f>
-        <v>1.3611111111111112</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="W5" s="9">
         <f>P18</f>
-        <v>0.97222222222222221</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
@@ -881,7 +943,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -932,7 +994,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -982,7 +1044,7 @@
       </c>
       <c r="S7" s="5">
         <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
-        <v>0.60814368840409883</v>
+        <v>0.28803118252030269</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>29</v>
@@ -990,7 +1052,7 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1011,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -1030,12 +1092,12 @@
       </c>
       <c r="P8" s="3">
         <f>SUM(H8:O8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -1059,7 +1121,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
@@ -1083,7 +1145,7 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1115,6 +1177,18 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
@@ -1129,6 +1203,12 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
@@ -1157,7 +1237,9 @@
       <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="S13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1187,6 +1269,12 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1196,23 +1284,23 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M14" s="4">
         <f>M26*$P$9/$P$31</f>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
@@ -1220,55 +1308,61 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>1.3611111111111112</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
+        <v>17</v>
+      </c>
+      <c r="S14" s="18">
         <f t="shared" ref="S14:Z14" si="3">H9</f>
         <v>2</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="19">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1280,71 +1374,77 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>1.5555555555555556</v>
+        <v>1.7777777777777781</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="21">
         <f>H19</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:Z15" si="6">I19</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>0.97222222222222232</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>0.77777777777777779</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="6"/>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="Z15" s="8">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Z15" s="9">
         <f t="shared" si="6"/>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1352,11 +1452,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
@@ -1364,11 +1464,11 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="8"/>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="8"/>
@@ -1376,10 +1476,11 @@
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
       <c r="G17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1490,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="9"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="9"/>
@@ -1401,11 +1502,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="9"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1413,21 +1514,22 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="10"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>1.3611111111111112</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5">
         <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
-        <v>0.45922209694110283</v>
-      </c>
-    </row>
-    <row r="18" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.29057273610434592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1543,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="11"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -1449,7 +1551,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="11"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
@@ -1457,59 +1559,59 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="12"/>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="12"/>
-        <v>0.19444444444444445</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(H18:O18)</f>
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="19" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(H14:H18)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="13"/>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="13"/>
-        <v>0.97222222222222232</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>0.77777777777777779</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M19" s="1">
         <f>SUM(M14:M18)</f>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="13"/>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="P19" s="2">
         <f>SUM(P14:P18)</f>
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="7:19" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="15" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1634,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
         <v>3</v>
@@ -1562,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G27" s="3" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1661,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G30" s="3" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="7:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1901,7 +2003,7 @@
       </c>
       <c r="W42" s="7">
         <f>P8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1910,7 +2012,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="15"/>
@@ -1918,7 +2020,7 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="15"/>
@@ -1930,42 +2032,42 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="P43" s="3">
         <f>SUM(H43:O43)</f>
-        <v>1.9999999999999996</v>
+        <v>2</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S43" s="8">
         <f>P9/5</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="T43" s="8">
         <f>S43</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="U43" s="8">
         <f>T43</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="V43" s="8">
         <f>U43</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W43" s="9">
         <f>V43</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.3">
@@ -1974,7 +2076,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
@@ -1982,7 +2084,7 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
@@ -1994,19 +2096,19 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(H44:O44)</f>
-        <v>1.9999999999999996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.3">
@@ -2015,7 +2117,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="15"/>
@@ -2023,7 +2125,7 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="15"/>
@@ -2035,26 +2137,26 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
       <c r="P45" s="3">
         <f>SUM(H45:O45)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
         <v>19</v>
       </c>
       <c r="S45" s="5">
         <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
-        <v>0.68337119426565074</v>
+        <v>0.51689314741100933</v>
       </c>
     </row>
     <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2063,7 +2165,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="15"/>
@@ -2071,7 +2173,7 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="15"/>
@@ -2083,19 +2185,19 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="15"/>
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="P46" s="3">
         <f>SUM(H46:O46)</f>
-        <v>1.9999999999999996</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2104,7 +2206,7 @@
       </c>
       <c r="H47" s="1">
         <f>SUM(H42:H46)</f>
-        <v>1.9999999999999998</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ref="I47" si="16">SUM(I42:I46)</f>
@@ -2112,7 +2214,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ref="J47" si="17">SUM(J42:J46)</f>
-        <v>0.99999999999999989</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" ref="K47" si="18">SUM(K42:K46)</f>
@@ -2124,19 +2226,19 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ref="M47" si="20">SUM(M42:M46)</f>
-        <v>1.9999999999999998</v>
+        <v>2</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" ref="N47" si="21">SUM(N42:N46)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ref="O47" si="22">SUM(O42:O46)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2">
         <f>SUM(P42:P46)</f>
-        <v>6.9999999999999982</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2181,7 +2283,7 @@
       </c>
       <c r="S52" s="4">
         <f t="shared" ref="S52:Z52" si="23">H47</f>
-        <v>1.9999999999999998</v>
+        <v>2</v>
       </c>
       <c r="T52" s="4">
         <f t="shared" si="23"/>
@@ -2189,7 +2291,7 @@
       </c>
       <c r="U52" s="4">
         <f t="shared" si="23"/>
-        <v>0.99999999999999989</v>
+        <v>2</v>
       </c>
       <c r="V52" s="4">
         <f t="shared" si="23"/>
@@ -2201,15 +2303,15 @@
       </c>
       <c r="X52" s="4">
         <f t="shared" si="23"/>
-        <v>1.9999999999999998</v>
+        <v>2</v>
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="23"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="7">
         <f t="shared" si="23"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2218,35 +2320,35 @@
       </c>
       <c r="S53" s="8">
         <f>P9/8</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ref="T53:Z53" si="24">S53</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="W53" s="8">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Y53" s="8">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="24"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -2255,7 +2357,7 @@
       </c>
       <c r="S55" s="5">
         <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
-        <v>0.59058279955303417</v>
+        <v>0.53974935039555727</v>
       </c>
     </row>
   </sheetData>
@@ -2375,8 +2477,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A5:A9" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C6784-B20A-46AF-A165-CC16413837F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E496AAE7-C819-4C04-BA00-63B749022EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -371,18 +371,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -708,24 +708,24 @@
       <c r="E2" s="12">
         <v>0.27361111111111108</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
       <c r="AB2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
@@ -849,7 +849,7 @@
       </c>
       <c r="T4" s="4">
         <f>P5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" s="4">
         <f>P6</f>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -912,37 +912,37 @@
       </c>
       <c r="P5" s="3">
         <f>SUM(H5:O5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S5" s="8">
         <f>P14</f>
-        <v>1.5555555555555556</v>
+        <v>1.75</v>
       </c>
       <c r="T5" s="8">
         <f>P15</f>
-        <v>1.7777777777777781</v>
+        <v>2</v>
       </c>
       <c r="U5" s="8">
         <f>P16</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" s="8">
         <f>P17</f>
-        <v>1.5555555555555556</v>
+        <v>1.75</v>
       </c>
       <c r="W5" s="9">
         <f>P18</f>
-        <v>1.1111111111111112</v>
+        <v>1.25</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -1044,14 +1044,14 @@
       </c>
       <c r="S7" s="5">
         <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
-        <v>0.28803118252030269</v>
+        <v>0.28228577934496885</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(H4:H8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:O9" si="0">SUM(I4:I8)</f>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B11" t="s">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
@@ -1189,26 +1189,32 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
@@ -1269,7 +1275,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
@@ -1284,23 +1290,23 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="M14" s="4">
         <f>M26*$P$9/$P$31</f>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
@@ -1308,50 +1314,50 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>1.5555555555555556</v>
+        <v>1.75</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="16">
         <f t="shared" ref="S14:Z14" si="3">H9</f>
-        <v>2</v>
-      </c>
-      <c r="T14" s="19">
+        <v>3</v>
+      </c>
+      <c r="T14" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W14" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Y14" s="19">
+      <c r="Y14" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
@@ -1362,7 +1368,7 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1374,66 +1380,66 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>1.7777777777777781</v>
+        <v>2</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="19">
         <f>H19</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:Z15" si="6">I19</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>1.1111111111111112</v>
+        <v>1.25</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="6"/>
-        <v>1.3333333333333335</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
@@ -1444,7 +1450,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1452,11 +1458,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
@@ -1464,11 +1470,11 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="8"/>
@@ -1476,11 +1482,11 @@
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="G17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="9"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="9"/>
@@ -1502,11 +1508,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="9"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1514,22 +1520,22 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="10"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>1.5555555555555556</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5">
         <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
-        <v>0.29057273610434592</v>
+        <v>9.0116262504148462E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1549,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -1551,7 +1557,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="11"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
@@ -1559,15 +1565,15 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="12"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="12"/>
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(H18:O18)</f>
-        <v>1.1111111111111112</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1576,39 +1582,39 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(H14:H18)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="13"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="13"/>
-        <v>1.1111111111111112</v>
+        <v>1.25</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
         <f>SUM(M14:M18)</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="13"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>1.3333333333333335</v>
+        <v>1.5</v>
       </c>
       <c r="P19" s="2">
         <f>SUM(P14:P18)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1621,18 +1627,18 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="2"/>
@@ -1871,30 +1877,30 @@
       </c>
     </row>
     <row r="40" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="R40" s="14" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="R40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
     </row>
     <row r="41" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G41" s="2"/>
@@ -1991,7 +1997,7 @@
       </c>
       <c r="T42" s="4">
         <f>P5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U42" s="4">
         <f>P6</f>
@@ -2012,7 +2018,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="15"/>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="15"/>
@@ -2032,42 +2038,42 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P43" s="3">
         <f>SUM(H43:O43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S43" s="8">
         <f>P9/5</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T43" s="8">
         <f>S43</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U43" s="8">
         <f>T43</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="V43" s="8">
         <f>U43</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="W43" s="9">
         <f>V43</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.3">
@@ -2076,7 +2082,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
@@ -2084,7 +2090,7 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
@@ -2096,15 +2102,15 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(H44:O44)</f>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="15"/>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="15"/>
@@ -2137,15 +2143,15 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="15"/>
-        <v>0.25</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="15"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="15"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P45" s="3">
         <f>SUM(H45:O45)</f>
@@ -2156,7 +2162,7 @@
       </c>
       <c r="S45" s="5">
         <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
-        <v>0.51689314741100933</v>
+        <v>0.43691486132809887</v>
       </c>
     </row>
     <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2165,7 +2171,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="15"/>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="15"/>
@@ -2185,15 +2191,15 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="15"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="15"/>
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P46" s="3">
         <f>SUM(H46:O46)</f>
@@ -2206,7 +2212,7 @@
       </c>
       <c r="H47" s="1">
         <f>SUM(H42:H46)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" ref="I47" si="16">SUM(I42:I46)</f>
@@ -2238,7 +2244,7 @@
       </c>
       <c r="P47" s="2">
         <f>SUM(P42:P46)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2283,7 +2289,7 @@
       </c>
       <c r="S52" s="4">
         <f t="shared" ref="S52:Z52" si="23">H47</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T52" s="4">
         <f t="shared" si="23"/>
@@ -2320,35 +2326,35 @@
       </c>
       <c r="S53" s="8">
         <f>P9/8</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ref="T53:Z53" si="24">S53</f>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="W53" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="Y53" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
       </c>
       <c r="S55" s="5">
         <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
-        <v>0.53974935039555727</v>
+        <v>0.34249355073301457</v>
       </c>
     </row>
   </sheetData>

--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E496AAE7-C819-4C04-BA00-63B749022EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE2108-1590-4BBB-8AB3-04B465719351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -667,7 +667,7 @@
   <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="U4" s="4">
         <f>P6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" s="4">
         <f>P7</f>
@@ -919,23 +919,23 @@
       </c>
       <c r="S5" s="8">
         <f>P14</f>
-        <v>1.75</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="T5" s="8">
         <f>P15</f>
-        <v>2</v>
+        <v>2.2222222222222219</v>
       </c>
       <c r="U5" s="8">
         <f>P16</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V5" s="8">
         <f>P17</f>
-        <v>1.75</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="W5" s="9">
         <f>P18</f>
-        <v>1.25</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
@@ -979,14 +979,14 @@
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="3">
         <f>SUM(H6:O6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
         <v>24</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="S7" s="5">
         <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
-        <v>0.28228577934496885</v>
+        <v>0.32578004187269105</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>29</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1281,6 +1281,12 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1290,23 +1296,23 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M14" s="4">
         <f>M26*$P$9/$P$31</f>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
@@ -1314,11 +1320,11 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>1.75</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
@@ -1349,7 +1355,7 @@
       </c>
       <c r="Y14" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="18">
         <f t="shared" si="3"/>
@@ -1363,12 +1369,18 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1380,62 +1392,62 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>2</v>
+        <v>2.2222222222222219</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S15" s="19">
         <f>H19</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:Z15" si="6">I19</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -1445,12 +1457,18 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1458,11 +1476,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
@@ -1470,11 +1488,11 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="8"/>
@@ -1482,7 +1500,7 @@
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1496,7 +1514,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1520,18 +1538,18 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>1.75</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5">
         <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
-        <v>9.0116262504148462E-2</v>
+        <v>0.13861902087329558</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1549,7 +1567,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -1557,7 +1575,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
@@ -1565,15 +1583,15 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(H18:O18)</f>
-        <v>1.25</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1582,39 +1600,39 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(H14:H18)</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="13"/>
-        <v>1.25</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="M19" s="1">
         <f>SUM(M14:M18)</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="P19" s="2">
         <f>SUM(P14:P18)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2001,7 +2019,7 @@
       </c>
       <c r="U42" s="4">
         <f>P6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" s="4">
         <f>P7</f>
@@ -2018,7 +2036,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="15"/>
@@ -2026,7 +2044,7 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="15"/>
@@ -2038,15 +2056,15 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="P43" s="3">
         <f>SUM(H43:O43)</f>
@@ -2057,23 +2075,23 @@
       </c>
       <c r="S43" s="8">
         <f>P9/5</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T43" s="8">
         <f>S43</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U43" s="8">
         <f>T43</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V43" s="8">
         <f>U43</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W43" s="9">
         <f>V43</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.3">
@@ -2082,7 +2100,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.9</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
@@ -2090,7 +2108,7 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>0.44444444444444442</v>
+        <v>0.6</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
@@ -2102,19 +2120,19 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="15"/>
-        <v>0.44444444444444442</v>
+        <v>0.6</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="15"/>
-        <v>0.22222222222222221</v>
+        <v>0.6</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
-        <v>0.22222222222222221</v>
+        <v>0.3</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(H44:O44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.3">
@@ -2123,7 +2141,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="15"/>
@@ -2131,7 +2149,7 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="15"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="15"/>
@@ -2143,26 +2161,26 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="15"/>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="15"/>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="15"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="P45" s="3">
         <f>SUM(H45:O45)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R45" t="s">
         <v>19</v>
       </c>
       <c r="S45" s="5">
         <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
-        <v>0.43691486132809887</v>
+        <v>0.40600584970983811</v>
       </c>
     </row>
     <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2171,7 +2189,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="15"/>
@@ -2179,7 +2197,7 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="15"/>
@@ -2191,15 +2209,15 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.3</v>
       </c>
       <c r="P46" s="3">
         <f>SUM(H46:O46)</f>
@@ -2236,7 +2254,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ref="N47" si="21">SUM(N42:N46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ref="O47" si="22">SUM(O42:O46)</f>
@@ -2244,7 +2262,7 @@
       </c>
       <c r="P47" s="2">
         <f>SUM(P42:P46)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2313,7 +2331,7 @@
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z52" s="7">
         <f t="shared" si="23"/>
@@ -2326,35 +2344,35 @@
       </c>
       <c r="S53" s="8">
         <f>P9/8</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ref="T53:Z53" si="24">S53</f>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="W53" s="8">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="Y53" s="8">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="24"/>
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -2363,7 +2381,7 @@
       </c>
       <c r="S55" s="5">
         <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
-        <v>0.34249355073301457</v>
+        <v>0.36918210297402698</v>
       </c>
     </row>
   </sheetData>

--- a/Sleep/Sleep.xlsx
+++ b/Sleep/Sleep.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE2108-1590-4BBB-8AB3-04B465719351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9402BB74-EDAB-4118-8E6F-045D6B29573B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="47">
   <si>
     <t>Day</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>03/05/2019</t>
+  </si>
+  <si>
+    <t>CBA to continue</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -377,6 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,18 +714,18 @@
       <c r="E2" s="12">
         <v>0.27361111111111108</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
       <c r="AB2" t="s">
         <v>20</v>
       </c>
@@ -853,7 +859,7 @@
       </c>
       <c r="U4" s="4">
         <f>P6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" s="4">
         <f>P7</f>
@@ -861,7 +867,7 @@
       </c>
       <c r="W4" s="7">
         <f>P8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="s">
         <v>22</v>
@@ -919,23 +925,23 @@
       </c>
       <c r="S5" s="8">
         <f>P14</f>
-        <v>1.9444444444444444</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T5" s="8">
         <f>P15</f>
-        <v>2.2222222222222219</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="U5" s="8">
         <f>P16</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V5" s="8">
         <f>P17</f>
-        <v>1.9444444444444444</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="W5" s="9">
         <f>P18</f>
-        <v>1.3888888888888888</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="AB5" t="s">
         <v>23</v>
@@ -979,14 +985,14 @@
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="3">
         <f>SUM(H6:O6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
         <v>24</v>
@@ -1044,7 +1050,7 @@
       </c>
       <c r="S7" s="5">
         <f>_xlfn.CHISQ.TEST(S4:W4,S5:W5)</f>
-        <v>0.32578004187269105</v>
+        <v>0.15046217116030161</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>29</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -1092,7 +1098,7 @@
       </c>
       <c r="P8" s="3">
         <f>SUM(H8:O8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1121,7 +1127,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
@@ -1137,7 +1143,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
@@ -1145,7 +1151,7 @@
       </c>
       <c r="P9" s="2">
         <f>SUM(P4:P8)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1189,18 +1195,18 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
@@ -1296,23 +1302,23 @@
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="4">
         <f>M26*$P$9/$P$31</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ref="N14:O14" si="2">N26*$P$9/$P$31</f>
@@ -1320,11 +1326,11 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P14" s="3">
         <f>SUM(H14:O14)</f>
-        <v>1.9444444444444444</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="U14" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" s="17">
         <f t="shared" si="3"/>
@@ -1355,7 +1361,7 @@
       </c>
       <c r="Y14" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="18">
         <f t="shared" si="3"/>
@@ -1380,7 +1386,7 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ref="H15:L15" si="4">H27*$P$9/$P$31</f>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
@@ -1392,62 +1398,62 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="4"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ref="M15:O15" si="5">M27*$P$9/$P$31</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P15" s="3">
         <f>SUM(H15:O15)</f>
-        <v>2.2222222222222219</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="S15" s="19">
         <f>H19</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15:Z15" si="6">I19</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="6"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="6"/>
-        <v>1.3888888888888888</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="6"/>
-        <v>1.1111111111111112</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="6"/>
-        <v>1.6666666666666665</v>
+        <v>1.9999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -1468,7 +1474,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" ref="H16:L16" si="7">H28*$P$9/$P$31</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1476,11 +1482,11 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="7"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="7"/>
@@ -1488,11 +1494,11 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" ref="M16:O16" si="8">M28*$P$9/$P$31</f>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="8"/>
@@ -1500,7 +1506,7 @@
       </c>
       <c r="P16" s="3">
         <f>SUM(H16:O16)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1514,7 +1520,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="9"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="9"/>
@@ -1526,11 +1532,11 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="9"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" ref="M17:O17" si="10">M29*$P$9/$P$31</f>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="10"/>
@@ -1538,22 +1544,27 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="10"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(H17:O17)</f>
-        <v>1.9444444444444444</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" s="5">
         <f>_xlfn.CHISQ.TEST(S14:Z14,S15:Z15)</f>
-        <v>0.13861902087329558</v>
+        <v>7.210839103392136E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1578,7 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="11"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="11"/>
@@ -1575,7 +1586,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="11"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" ref="M18:O18" si="12">M30*$P$9/$P$31</f>
@@ -1583,15 +1594,15 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="12"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="12"/>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P18" s="3">
         <f>SUM(H18:O18)</f>
-        <v>1.3888888888888888</v>
+        <v>1.6666666666666665</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1600,39 +1611,39 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(H14:H18)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ref="I19:O19" si="13">SUM(I14:I18)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="13"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="13"/>
-        <v>1.3888888888888888</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>1.1111111111111112</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="M19" s="1">
         <f>SUM(M14:M18)</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="13"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>1.6666666666666665</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="P19" s="2">
         <f>SUM(P14:P18)</f>
-        <v>10</v>
+        <v>11.999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1645,18 +1656,18 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="2"/>
@@ -1895,30 +1906,30 @@
       </c>
     </row>
     <row r="40" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="R40" s="20" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="R40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
     </row>
     <row r="41" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G41" s="2"/>
@@ -2019,7 +2030,7 @@
       </c>
       <c r="U42" s="4">
         <f>P6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" s="4">
         <f>P7</f>
@@ -2027,7 +2038,7 @@
       </c>
       <c r="W42" s="7">
         <f>P8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2036,7 +2047,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="15"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="15"/>
@@ -2044,7 +2055,7 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="15"/>
@@ -2056,15 +2067,15 @@
       </c>
       <c r="M43" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="P43" s="3">
         <f>SUM(H43:O43)</f>
@@ -2075,23 +2086,23 @@
       </c>
       <c r="S43" s="8">
         <f>P9/5</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="T43" s="8">
         <f>S43</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="U43" s="8">
         <f>T43</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="V43" s="8">
         <f>U43</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="W43" s="9">
         <f>V43</f>
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="44" spans="7:27" x14ac:dyDescent="0.3">
@@ -2100,7 +2111,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
@@ -2108,7 +2119,7 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
@@ -2120,19 +2131,19 @@
       </c>
       <c r="M44" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(H44:O44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="7:27" x14ac:dyDescent="0.3">
@@ -2141,7 +2152,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="15"/>
@@ -2149,7 +2160,7 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="15"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="15"/>
@@ -2161,26 +2172,26 @@
       </c>
       <c r="M45" s="4">
         <f t="shared" si="15"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="15"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P45" s="3">
         <f>SUM(H45:O45)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
         <v>19</v>
       </c>
       <c r="S45" s="5">
         <f>_xlfn.CHISQ.TEST(S42:W42,S43:W43)</f>
-        <v>0.40600584970983811</v>
+        <v>0.23972947952515339</v>
       </c>
     </row>
     <row r="46" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2189,7 +2200,7 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" si="15"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="15"/>
@@ -2197,7 +2208,7 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="15"/>
@@ -2209,19 +2220,19 @@
       </c>
       <c r="M46" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P46" s="3">
         <f>SUM(H46:O46)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="7:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2238,7 +2249,7 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" ref="J47" si="17">SUM(J42:J46)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" ref="K47" si="18">SUM(K42:K46)</f>
@@ -2254,7 +2265,7 @@
       </c>
       <c r="N47" s="1">
         <f t="shared" ref="N47" si="21">SUM(N42:N46)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" ref="O47" si="22">SUM(O42:O46)</f>
@@ -2262,7 +2273,7 @@
       </c>
       <c r="P47" s="2">
         <f>SUM(P42:P46)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="7:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2315,7 +2326,7 @@
       </c>
       <c r="U52" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V52" s="4">
         <f t="shared" si="23"/>
@@ -2331,7 +2342,7 @@
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z52" s="7">
         <f t="shared" si="23"/>
@@ -2344,35 +2355,35 @@
       </c>
       <c r="S53" s="8">
         <f>P9/8</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="T53" s="8">
         <f t="shared" ref="T53:Z53" si="24">S53</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U53" s="8">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="V53" s="8">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="W53" s="8">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X53" s="8">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y53" s="8">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Z53" s="9">
         <f t="shared" si="24"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.3">
@@ -2381,11 +2392,12 @@
       </c>
       <c r="S55" s="5">
         <f>_xlfn.CHISQ.TEST(S52:Z52,S53:Z53)</f>
-        <v>0.36918210297402698</v>
+        <v>0.22960164919379378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="R40:AA40"/>
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="G40:P40"/>
@@ -2489,13 +2501,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{20F713B3-2578-48ED-AA40-4024F6F4D1CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17 B19:B29" xr:uid="{20F713B3-2578-48ED-AA40-4024F6F4D1CE}">
       <formula1>$AB$2:$AB$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49" xr:uid="{440D6AD8-54F4-410B-8801-081B5ACB0597}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 D19:D49" xr:uid="{440D6AD8-54F4-410B-8801-081B5ACB0597}">
       <formula1>$S$3:$X$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C57" xr:uid="{6C3F1DA4-F5F2-4318-9D5E-1C49DE1A195E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17 C19:C57" xr:uid="{6C3F1DA4-F5F2-4318-9D5E-1C49DE1A195E}">
       <formula1>$S$13:$AA$13</formula1>
     </dataValidation>
   </dataValidations>
